--- a/sementonasa.xlsx
+++ b/sementonasa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8445"/>
+    <workbookView windowWidth="19665" windowHeight="7770" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,8 +170,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -196,9 +196,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +207,21 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,6 +241,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -236,23 +258,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,29 +283,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,13 +297,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -312,7 +304,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,18 +325,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -349,187 +349,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,11 +619,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,6 +660,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -657,188 +692,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -937,10 +937,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="EEEEEC"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="232729"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1192,11 +1192,11 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
     <col min="5" max="5" width="12.5"/>
     <col min="6" max="6" width="11.4"/>
@@ -1662,11 +1662,11 @@
   <sheetPr/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1912,10 +1912,10 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="12.6" customWidth="1"/>
     <col min="3" max="29" width="12.5"/>
@@ -2200,7 +2200,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
@@ -2257,7 +2257,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
@@ -2295,10 +2295,10 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1"/>
@@ -2364,11 +2364,11 @@
   <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="3" width="12.5"/>
     <col min="5" max="6" width="12.5"/>
@@ -2550,11 +2550,11 @@
       </c>
       <c r="E15">
         <f>B15*F2</f>
-        <v>90622.0330160814</v>
+        <v>90622.033016081</v>
       </c>
       <c r="F15">
         <f>C15*F2</f>
-        <v>20252.5970296316</v>
+        <v>20252.5970296315</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -2599,13 +2599,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="3" width="12.5"/>
     <col min="4" max="4" width="14.2" customWidth="1"/>
+    <col min="7" max="7" width="12.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2653,7 +2654,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1"/>
